--- a/500all/speech_level/speeches_CHRG-114hhrg22194.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22194.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="389">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. The Committee on Oversight and Government Reform will come to order. Without objection, the chair is authorized to declare a recess at any time.    I want to thank you all for being here. This is an important topic as we discuss firearms and munitions and examining the safeguards that may or may not be in place there. And that is of utmost concern, I think, to the public and certainly to the Congress. There have been reports and investigations, and I think this is a good opportunity to have a candid discussion with members asking questions.    Obviously, keeping a list on what government agencies own should be a routine practice. It is always fascinating to me that we, for instance, don't have an inventory of all the assets that the government owns, can't tell you how much real property they own, can't tell you exactly how many buildings that we own. You can't go online and say show me a list of these things.    There are some things that maybe shouldn't be out there in the public; I understand that. We don't want to let the adversary know the details of specifics regarding ammunition and munitions, but when you have a list and you are tracking it adequately, you know it is inventory. And you know when something is no longer there, if it goes missing, you know if you have a problem with theft. And when we are talking about guns and ammunition and even more powerful things than your regular .22, then you have got an issue that we need to discuss.    The Office of Personnel Management does not have a list of its servers, its databases or network devices, and then it lost information on 21 million Americans. GSA was trying to maintain an inventory of surplus firearms around the country, which was on an Excel spreadsheet, and it lost 485 firearms, including grenade launchers, Uzis, and assault rifles.    Government-wide, Federal agencies purchased roughly $1.5 billion worth of firearms, munitions, and equipment between 2006 and 2014. We need to make sure this is safeguarded and there is adequate auditing in place.    This past March, the Department of Justice inspector general released a report detailing the lack of proper inventory and control procedures at the Bureau of Prisons. The inspector general started its audit of armory practices after a bureau employee pled guilty to stealing flashbang stun munitions. When the IG reviewed seven of the 120 armories at BOP facilities, it found insufficient firearms and munitions controls and practices, which created increased risk of loss and theft. The audit discovered the records system that was used to track munitions did not record changes to the inventory, and forms used to check out munitions and firearms were incorrect and incomplete. And again, this was only at seven of these facilities. Again, without adequate tracking it is extremely difficult to maintain an inventory.    When onsite inventory counts were conducted at armories, auditors found actually inventory did not match what was reported. There are numerous instances where the inventory reports stated more or less than the actual amount of munitions present at the actual armory. The result of these discrepancies is that the only person who knows the correct count is the officer in charge of the armory, and we even question whether that is true.    The Bureau of Prisons is not alone, though, in its inventory trouble. And the release of Department of Justice inspector general report came only a short time after equally troubling finding at the Department of Homeland Security's at the safeguarding of firearms. In February 2016 multiple news agencies reported that during a 31-month period between 2012 and 2015, Homeland Security lost 165 firearms, along with more than thousands of badges and credentials.    When the committee reviewed the documentations for losses between 2012 and 2015, it was discovered the number of lost firearms actually exceeded 220, including at least one firearm known to have been later used in a violent crime. Loss of a single firearm is cause for concern. The loss of what amounts to roughly five a month is totally unacceptable.    This is especially concerning for a department charged with keeping our homeland secure, but it is not the first time Homeland Security has had issues with firearms inventory practices. In 2010 the DHS inspector general found that between fiscal years 2006 at 2008 the agency lost roughly 289 firearms. That means that in just 7 years Homeland Security has lost more than 500 firearms.    High-profile crimes connected with firearms lost by their agencies such as the Bureau of Land Management indicate that weak inventory accounting and controls are potentially widespread among Federal agencies.    It is abundantly clear that when it comes to Federal agency firearms, ammunitions, nobody is minding the store. It is a problem that must be fixed. That is why we are here today. And we appreciate the testimony and the interaction we will have.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman, and thank you for calling this hearing.    Last month, a deranged terrorist walked into a nightclub in Orlando and shot down 49 innocent people in one of the most devastating gun massacres in our nation's history. To say that our prayers go out to the families, while certainly true, is simply no longer enough. We do not have the right to remain silent. We cannot ignore them. We must act, and we must act now.    Every year about 12,000 Americans are killed with guns. I haven't even included the suicides. My hometown of Baltimore more than 300 were killed last year alone in shooting-related homicides. We as elected officials here in the Congress should be able to agree that suspected terrorists, suspected terrorists should not have guns.    The American people already agree, law-abiding gun owners agree, people who support the Second Amendment agree. But this proposal is opposed by the NRA, the gun manufacturers, and Republican leaders who will not allow a vote to close this terrorist loophole. Instead, Speaker Ryan announced plans this week to call up a phony bill endorsed by the NRA that continues to allow suspected terrorists, suspected terrorists, suspected terrorists to buy guns unless there is an arrest warrant against them. And now even that proposal has been put on hold.    Let me ask you this. If we ban a suspected terrorist from boarding a plane, why in the world would we let him walk across the street into a gun store and stock up on military-style assault weapons within 72 hours? It makes absolutely no sense. But that is what this NRA bill would do.    We here in Congress should also be able to agree that no convicted felon should have guns. If people are convicted of violent crimes, they should not be allowed to buy semiautomatic firearms, .50 caliber sniper rifles, or other types of deadly weapons. Having a background check for any gun changes hands is a commonsense proposal supported by a wide majority of Americans, including law-abiding gun owners and strong supporters of the Second Amendment. But again, the NRA, gun manufacturers, and their Republican supporters in Congress prevented this from happening.    We here in Congress should be able to support a Federal law against illegal gun trafficking by drug cartels or other criminal organizations. We have heard firsthand from law enforcement agents in testifying at this very witness table that the current statute is just a slap on the wrist. And they begged us to address it. They called it a toothless paperwork violation.    That is why Congresswoman Maloney and I introduced the Gun Trafficking Prevention Act. This bipartisan bill, cosponsored by Republicans, including Patrick Meehan, Michael Fitzpatrick, Scott Rigell, and Peter King, again, more than 100 cosponsors and supported by law enforcement organizations across the country. But that was more than 3 years ago, more than 3 years ago. Since that time many people have died, shot down with a gun.    Since then, there has not been one hearing, one markup, or one vote on our bipartisan proposal. Our bill, like so many other commonsense proposals, has been gathering dust because Republican leaders refuse to allow a vote.    Of course, Federal agencies must safeguard their firearms, which is the subject of today's hearing. Everyone on this panel agrees with that. Last year, a young woman Kate Steinle was killed by a convicted felon when a duty pistol that belonged to a ranger from the Bureau of Land Management--she was killed with it. The gun was stolen from his vehicle week earlier.    Of course, it is appropriate to examine crimes committed with Federal firearms that are lost or stolen and to identify improvements in the way Federal agencies keep their inventories. But we can no longer ignore the far more massive carnage caused by non-Federal guns every single day in this country.    There have been some very high-profile shootings, and these shootings cause people to demand action. But there are also many, many shootings every single day that do not get the attention. Directly across the street from me in Baltimore 30 feet from my house lives a young man named Rassaan Hammond. He is a 36-year-old who has a master's degree and he owns a sound studio in east Baltimore. His mother is the graduate dean emeritus of the Maryland Institute of Art.    Just last week, last week, Mr. Hammond was driving away from his studio in Baltimore when his car was shot at six times. One of the bullets entered his heart. And my neighbor of 20 years had the good fortune that his heart miraculously pumped the bullet into his aorta. Mr. Hammond was also shot in the arm. The doctors say that he will survive, he will be okay, and it is one in a 10 million chance that somebody could be shot in the heart and survive. Miraculously, the bullets were recoverable and he survived and is now recovering.    Police have not identified a suspect in this shooting, but this one example highlights the scope of this epidemic. That is that people just like young Mr. Hammond are gunned down every single day in our country, and many are not as lucky as he was.    As I close, the bottom line is that we do not want any suspected terrorists to get a gun, we do not want any felon to get a gun, and we do not want any trafficking organization to get guns. But there has been no credible action by Republican leaders to address these issues. The American people want us to move beyond false choice of no guns at all or the Wild West of firearms on demand. We can--yes, we can and we must make commonsense improvements on a bipartisan basis, and it is our solemn duty to act now to prevent the further loss of life of our own citizens.    And with that, Mr. Chairman, I thank you for the courtesy and I yield back.</t>
   </si>
   <si>
@@ -79,36 +73,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Horowitz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Horowitz. Thank you, Mr. Chairman, Ranking Member Cummings, members of the committee. Thank you for inviting me to testify today.    The safety and security of Federal prisons remains one of the Justice Department's top management challenges, and the proper authorization, use, and tracking of BOP armory munitions and equipment are critical factors in ensuring the safety and security of our Federal prisons.    The OIG recently audited the BOP's munitions controls following an OIG investigation that resulted in a BOP special operations response team member pleading guilty to stealing stun munitions from a BOP facility. Our audit identified several weaknesses in BOP's policies and practices for safeguarding armory munitions and equipment, although we did find that BOP had not lost any firearms in those munitions facilities.    Specifically, we found weaknesses in BOP's controls over tracking, issuing, and reporting on both active and expired armory munitions and equipment, as well as institutions' compliance with existing policies. Significantly, we found that a BOP security officer can move inventory in and out of the armory and change information in the BOP's inventory data system without leaving any record that a change in inventory occurred.    We also found that information in the data system was neither complete nor accurate. Our audit also identified inventory errors that BOP institutions should have identified themselves during their quarterly physical inventories but did not. Additionally, the authorization and use of armory munitions and equipment was not always adequately documented.    Finally, we found that the BOP's controls are not adequate to ensure that only authorized armory munitions and equipment are stored in those armories. We identified unauthorized chemical agents and ammunition among BOP institutions' armory inventories. And in many instances, we were not able to determine if the munitions were authorized because BOP's lists of authorized munitions were outdated and otherwise inadequate. Our report made 14 recommendations to the BOP, and the BOP agreed with all of them.    The challenge of prison safety was further demonstrated in a report we issued last month assessing BOP's efforts to prevent contraband from being introduced into prisons. We found that recoveries of weapons, narcotics, and tobacco in BOP institutions had increased significantly. We also determined that BOP had not effectively implemented its staff search policy to deter staff introduction of contraband.    In a 2003 OIG report we recommended that BOP revise its policies to require searches of staff and their property when they enter prisons. More than 10 years--after more than 10 years of negotiation with its union, BOP implemented a new staff search policy in 2013. However, last year, the Federal Labor Relations Authority ordered BOP to stop using that 2013 staff search policy following a union challenge to it. As a result, more than 13 years after our 2003 report, BOP still has no comprehensive and effective staff search policy. We made 11 recommendations in our report to BOP to improve its ability to interdict prison contraband, and BOP again agreed with all of those recommendations.    Weapons in BOP prisons represent not only a life-threatening danger to BOP staff and inmates but also to those in law enforcement such as FBI, DEA, and OIG agents who investigate serious criminal conduct in Federal prisons. My office knows those dangers all too well. In June 2006 OIG and FBI agents were at a BOP prison to arrest six correctional officers on charges of smuggling contraband and sexual abuse of inmates when one of the corrupt correctional officers drew a firearm that should not have been in the prison and shot both a BOP staff member and OIG special agent Buddy Sentner. Agent Sentner returned fire, killing the corrupt correctional officer and likely saving the lives of fellow agents and innocent bystanders. The BOP staff member survived his wounds. Agent Sentner did not.    Such tragic events demonstrate the critical need for the BOP to have an effective staff search policy to keep dangerous contraband and weapons out of prison and to make sure it has sufficient measures to control and account for all of the munitions and other weapons that are legally kept in its armories.    This concludes my prepared statement. I'd be pleased to answer any questions the committee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Thank you, Mr. Horowitz.    Mr. Kane, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Kane</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kane. Good morning, Chairman Chaffetz, Ranking Member Cummings, and members of the committee. I appear before you today to discuss the mission and operation of the Federal Bureau of Prisons and specifically our armory policies. We appreciate the committee's interest in this issue.    Our detailed response to your inquiry regarding lost and stolen firearms was provided on June 24, 2016, and our records indicate no lost, stolen, or missing weapons.    We also appreciate the considerable work of the OIG on their audit of Bureau armory ammunitions and equipment. We concurred with all 14 recommendations in the report and provided the first status update on June 21, 2016. The overall status of the report is now resolved with three closed recommendations, and we look forward to continuing to work with the OIG as we improve our systems for documenting and tracking munitions equipment in our armories.    I am honored to speak on behalf of the nearly 39,000 Bureau staff, law enforcement professionals who are correctional workers first and support the agency's mission and core values of respect, integrity, and correctional excellence.    Every day, when staff go to work at Bureau facilities around the country, they put the safety of the American people above their own. These dedicated public servants are committed to the highest standards of professionalism. Their courage, bravery, and sacrifice are essential to keeping our communities safe and our institutions secure.    As our nation's largest correctional agency, the Bureau houses approximately 195,500 inmates in our Federal prisons nationwide. Our mission, which dates back to the Bureau's establishment in 1930, is twofold. First, to protect society by confining offenders in prisons and community-based facilities that are safe, humane, cost-efficient, and appropriately secure; and second, to ensure that offenders are actively participating in programs that will assist them in becoming law-abiding citizens.    We have had great success with respect to both parts of our mission. Our facilities are safe and secure, and the latest research indicates 34 percent of released Federal offenders are rearrested or have their supervision revoked within 3 years as compared to almost 68 percent of offenders released from State prisons. Those numbers are a testament to the quality of evidence-based programs our staff provide in an environment that promotes respect and self-improvement.    In support of our public safety mission, the Bureau maintains armories for emergency equipment that is made available as required for certain correctional posts, for particular emergency situations, and for training. In 2011, a Bureau staff member pled guilty to one count of transfer of a stolen flashbang device, which was taken during a Special Operations Response Team training exercise at Florence, Colorado. The staff member was terminated from the Bureau and was sentenced to 6 months home confinement, 3 years' probation, and restitution for the value of the stolen goods.    The Bureau reported this incident to the Department of Justice's Office of Inspector General and cooperated fully in the investigation. We also took immediate steps to modify the armory tracking form for better accountability of the munitions taken out of and returned to the armory. Since that time, we have also made additional changes to the form, as recommended by the OIG, to further improve the accountability.    As I stated previously, the Bureau agrees with all 14 of the OIG report recommendations. The OIG has closed three recommendations, and the Bureau has recently completed two additional recommendations that will be reported to the OIG in our next status update. We are developing a national database that will strengthen and enhance our systems of control to support the remaining recommendations. We are confident that in addressing the issues identified in the report we will be enhancing the safety of our staff, inmates, and the public.    Chairman Chaffetz, Ranking Member Cummings, members of the committee, this concludes my formal statement. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Thank you, Mr. Kane.    Mr. Ellis, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Ellis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ellis. Thank you. Good morning, Mr. Chairman, Mr. Ranking Member, and members of the committee. I am Steve Ellis. I'm the Bureau of Land Management's deputy director for operations. I appreciate the opportunity to discuss BLM's firearms management practices here this morning.    The dedicated men and women who make up the BLM law enforcement program play an integral role in ensuring public safety and fulfilling our agency's multiple use and sustained-yield mission. Every day our officers put themselves in harm's way to investigate vandalism and looting, support emergency response, and provide a safe environment for employees and the visitors to our nation's public lands.    Nationally, the BLM manages a wide variety of resources spread over 245 million acres of public land and 700 million acres of subsurface mineral estate. There are many Federal laws and regulations that guide BLM in managing these public lands. The BLM has been given specific resource protection of law enforcement responsibility to further that mission.    The BLM manages more than 10 percent of the Nation's surface area and yet has one of the smallest law enforcement organizations among the Department of Interior's bureaus. The BLM is roughly one law enforcement officer for every one million acres of public land that we manage.    The public lands managed by BLM are predominantly located in the Western United States, including Alaska, and consist of a very diverse landscape and resources. As a result, the specific duties of each BLM law enforcement officer can vary considerably. In all areas, BLM law enforcement officers work in cooperation with local sheriffs' offices, State agencies, and other Federal law enforcement agencies.    BLM has approximately 185 law enforcement rangers and 75 special agents on staff who enforce a wide range of laws and regulations in preventing, detection, and investigation of crimes affecting public lands resources. BLM provides each law enforcement officer with the necessary tools to protect themselves and others as they carry out their official duties.    The BLM is vigilant about its responsibility to control, secure, and safeguard firearms that its law enforcement officers are issued to carry out their duties and their responsibilities. The standard firearms issue for each officer is a semiautomatic pistol for primary duty carry, semiautomatic pistol as a backup weapon, a shotgun, and a semiautomatic rifle.    The Department of Interior outlines policies for firearms inventory, accounting, control, disposal, and destruction, as detailed in the Department's letter to the committee on this issue that was sent last month--transmitted last month. Those procedures are included in the Department manual and Federal regulations and GSA Federal property management regulations. Among other requirements, departmental policy mandates that the bureau perform a fiscal firearm inventory of issued firearms twice year.    On rare occasions, BLM's law enforcement officers may seize or confiscate firearms as part of criminal investigations or when an owner voluntarily surrenders them. Federal regulations, GSA guidelines, and Department of interior property management directives are also followed when BLM periodically disposes of or destroys seized or confiscated firearms and other firearms deemed unserviceable, excess, voluntarily relinquished, or abandoned and not suitable for government use.    In the event that a firearm is lost or stolen, BLM complies with departmental policies that mandate notification of the Department within 24 hours for all lost or stolen firearms. Documentation and investigation of each incident occurs. It's entered in the lost or stolen firearms National Crime Information Center database and entered each incident in the Department's internal affairs database.    Over the last 10 years, the BLM has reported one firearm lost and seven as stolen. Six of these were recovered. There was only one instance during that period in which a lost or stolen BLM firearm has been implicated in subsequent criminal activity. On June 27, 2015, a BLM officer's handgun was stolen from his personal vehicle in San Francisco, California. The theft was immediately reported in accordance with BLM's policies and procedures. The gun was confirmed to have been used in a shooting that occurred in San Francisco on July 1, 2015.    Thank you for the opportunity to provide testimony today, and I'd be glad to answer any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Mr. Ellis, thank you.    Mr. Orner, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Orner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Orner. Good morning, Chairman Chaffetz, Ranking Member Cummings, and members of the committee. Thank you for the opportunity to appear before you today.    I am Jeffery Orner, DHS's chief readiness support officer, a career civil servant with 35 years of experience in the Federal Government, including executive leadership positions at Department of the Navy, the Coast Guard, and DHS headquarters. My office provides policy and oversight of DHS's real estate, mobile assets such as vehicles and aircraft, environmental compliance, logistics, and personal property, including firearms. Our goal is providing our dedicated workforce nationwide with the operational tools and support they need to keep our nation safe and to be strictly responsible stewards of government resources as we carry out those missions. Today, I will discuss how the Department ensures accountability for firearms and ammunition.    DHS is the Nation's largest law enforcement agency. Firearms are critical tools for the men and women who perform the Department's various law enforcement missions on the borders, in our cities, and in the maritime domain. Any lost firearm is a very serious matter, and my office has placed strict controls on reporting requirements to ensure 100 percent accountability at all times.    The foundations of our program are personal accountability, rigorous internal controls, and comprehensive data that we use to continually improve our internal controls over the DHS firearms program. I am pleased to report that DHS has made significant progress in reducing the number of firearms lost each year. Since the inspector general reported on this issue in 2010, DHS's weapons portfolio has increased by 9 percent. However, at the same time we have cut our annual firearms losses by 28 percent. DHS annual firearms losses now stand at 69 annually out of a total inventory of more than 204,000 weapons. This represents a loss rate of approximately 3/100 of 1 percent of our inventory.    In performing our headquarters role we have significantly improved the management and oversight of firearms, as well as all accountable personal property and sensitive assets through implementing the first DHS-wide firearms policy in April 2010, which we updated again in 2013. We strengthened the DHS management directive covering personal property asset management in 2012, and we updated the DHS personal property asset management manual in 2013.    Through these governing documents, we have established strict accountability procedures that clearly guide how our operational components are to process lost, damaged, or stolen property, including firearms. For example, those procedures require immediate internal notifications, as well as external alerts to law enforcement authorities in the event of any lost or stolen firearms, law enforcement badges and credentials, or other mission-critical assets. Departmental policy also requires our components to establish internal policies to ensure proper accountability, tracking, loss reporting, and safeguarding of all firearms.    In addition to improved policy and procedures, we also enhanced our data systems. Since 2012, department-wide reporting and tracking of lost, damaged, destroyed, and stolen government property has greatly improved with increased visibility of our data. For example, we moved from a system of manually combining multiple spreadsheets into one form to a real-time database that is updated directly by our operational components and is visible to my staff at headquarters. This enables DHS to monitor compliance with policy and procedures for firearms and other accountable assets through a monthly scorecard measure utilizing standards derived from the American Society for Testing and Materials.    Although it's clear we've made progress in reducing the number of lost and stolen firearms, the loss of any firearm is unacceptable. At the same time, it is important to understand that unlike the military, which generally does not allow its members to take firearms off base and usually stores them in a secure armory, DHS law enforcement personnel are seldom without their weapon. They take them home with them, carry them in their vehicles, and employ them in a very austere, demanding environment because they are always on call to respond.    One example of such a loss involves a U.S. Border Patrol officer stationed in Arizona near the southern U.S. border. The officer's home was burglarized and his service weapon, a pistol, which was secured in a CBP-issued lockbox, was stolen. In this case, as in other similar cases, it could be surmised that the officer and his residence were known in the community, thereby making his residence an optimal target for such a theft.    Given the environment in which our law enforcement agents operate, it is very difficult to ensure all losses--to eliminate all losses. However, when the losses occur, our procedures are very clear. The officer's supervisor is notified within 2 hours, as is local law enforcement. This initiates a chain of events leading up to a formal report, a survey being completed, and a lost, damaged, or destroyed report, which is sent to my office where the information is loaded into our data system and incorporated into our scorecard measures of loss rates, submission timelines, and adjudication timelines. Follow-on investigations and any disciplinary actions are determined by each operational component by the operational chain of command.    The Department takes very seriously its role as a steward of government resources, and we will continue to evaluate our current policies and procedures, and we will continue to identify areas for improvement and to act on those.    Thank you for the opportunity to give my opening statement today. I look forward to answering your questions.</t>
   </si>
   <si>
@@ -214,9 +196,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. And I share your frustration with the lack of information, so maybe we could work together on that subpoena.    I do want to ask you, Mr. Orner, and maybe Mr. Horowitz you could jump in here. We are talking about the custody of firearms, and we have a bill on the Floor maybe later today and tomorrow that ties in with DHS in a direct way. The bill would prevent anyone on the terrorist watch list from obtaining a firearm, but the language of the bill requires that there be probable cause.    Now, that is a pretty high standard, and I am concerned that in many cases we do not require probable cause. We require reasonable cause for somebody to be placed on the terrorist watch list. So we have a reasonable suspicion that this person might be engaged in terrorist-related activity.    But the bill would require, in order to stop that person from purchasing a firearm, a higher standard. In other words, DHS or the Joint Terrorism Task Force or the FBI would have to have probable cause, a higher standard, in order to stop a person who is on the terrorist watch list or on the no-fly list from purchasing a firearm.    Now, Mr. Orner or Mr. Horowitz, would you hazard an estimate of the efficacy of that provision of requiring probable cause to block somebody who is on the terrorist watch list but we don't necessarily have probable cause, we have reasonable cause, what the impact of that provision might have on the safety of the American public?</t>
   </si>
   <si>
@@ -274,18 +253,12 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. [Presiding] The gentleman's time is expired.    The chair now recognizes the gentleman from Michigan, Mr. Walberg, for 5 minutes.</t>
   </si>
   <si>
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman, and I appreciate the opportunity to have this hearing because certainly with all the posturing that is going on about the Second Amendment and about use of firearms, we certainly can agree that the Second Amendment is part of the Constitution, but any violation of law, illegal activity, criminal activity relative to firearms has to be treated that way. And certainly we should not be adding to the potential of criminal activity by not having secure usage and storage of government-supplied firearms, and so I appreciate the panel being here.    Mr. Orner, what are ICE's requirements for how officers secure firearms in their parked vehicles?</t>
   </si>
   <si>
@@ -466,9 +439,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman.    Mr. Orner, let me just continue on here. Obviously, we are talking hundreds of weapons that have been stolen or somehow lost over the last several years. Do you have any idea how many of those weapons were used in crimes?</t>
   </si>
   <si>
@@ -550,9 +520,6 @@
     <t>412644</t>
   </si>
   <si>
-    <t>Bonnie Watson Coleman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Watson Coleman. Thank you, Mr. Chairman.    Although I doubt that anyone would disagree with making sure that Federal firearms are secure, this hearing seems to me to be a bit of a red herring. In the midst of the conversations sparked by last week's Democratic sit-in, in the midst of calls to make commonsense changes to our nation's gun laws, in the midst of public agreement on the two things that Democrats asked for a vote on--no-fly, no buy, and closing loopholes in background checks--we are having a hearing about guns. But it is about a tiny fraction of guns and certainly not the guns causing the majority of the problems.    Even the title of today's hearing is misleading because while there are a variety of inadequate safeguards when it comes to firearms in our nation, Federal weapons seem pretty low on the list. It may be more worthwhile, for example, to bring NIH in to examine the impact of the congressionally imposed and the NRA-endorsed ban on studying the impact of gun violence.    I think our time would also be much better served with witnesses from the Justice Department or the FBI to talk about bullet stockpiles and how to track large ammunition purchases so that we can prevent mass shootings and make daily gun violence a little less frequent. I know for a fact that I would love to ask about my own Stop Online Ammunitions Sales Act.    In Connecticut alone, there are more than 51,000 registered assault rifles. One hundred and seventy-nine of them are owned by one individual. And according to one 2014 estimate, nearly one million assault weapons have gone unregistered in New York. So I would love to hear from witnesses who could tell me more about what these owners typically do with these weapons and maybe something more about how we can ensure that they remain out of the wrong hands.    All of that is to say that I hope that this hearing isn't the end of our examination of inadequate safeguards, Mr. Chairman, because if it is, then I believe that it is our work that is inadequate.    Thank you. I yield back.</t>
   </si>
   <si>
@@ -565,18 +532,12 @@
     <t>412474</t>
   </si>
   <si>
-    <t>Mick Mulvaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulvaney. I thank the chairman. I yield to the gentleman from North Carolina, Mr. Meadows.</t>
   </si>
   <si>
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. I thank the gentleman from South Carolina. And so let me follow up with my esteemed colleague opposite. I can assure her that this hearing is part of a series of hearings that we have had dating back long before some of the tragic events. She will recall obviously we have had GSA and a number of others that were in, and I have a strong commitment to work in a bipartisan way to continue not only the work that we have started many, many months ago but to continue to work on an inventory and control process that would address that. And so I just wanted to let the gentlewoman know of not only our previous efforts but our continuing efforts to address that.    So let me go ahead and go to some of the issues ----</t>
   </si>
   <si>
@@ -670,9 +631,6 @@
     <t xml:space="preserve">    Mr. Palmer. The gentleman yields.    The chair now recognizes the gentleman from Pennsylvania, Mr. Cartwright, for 5 minutes.</t>
   </si>
   <si>
-    <t>Cartwright</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cartwright. Thank you, Mr. Chairman.    And thanks to you, Inspector General Horowitz, for being here today ----</t>
   </si>
   <si>
@@ -700,9 +658,6 @@
     <t>412397</t>
   </si>
   <si>
-    <t>Paul A. Gosar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gosar. Thank you, Mr. Chairman.    Inspector General Horowitz, good seeing you again.</t>
   </si>
   <si>
@@ -781,9 +736,6 @@
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. Thank you for having this hearing. It is a truly serious, serious issue. Some of my colleagues and I just came from a meeting with 91 people, the average number of people who die each day, each day from gunshot wounds in our great country, and they were all people who had lost their loved ones and been shot themselves. I mean, it was heartbreaking, absolutely heartbreaking.    And on June 21 in the city that I represent, New York, there was a van coming into the city that had a broken window so they stopped the van and they opened up the van and it was filled with machine guns, grenades, and a whole cache of weapons coming in to the city of New York.    So really I want to thank you for looking at the Federal firearms inventories. I think it is important. But I would say it is a small drop in the bucket given the amount of guns that are in our country. Believe me, if guns made people safer, we would be the safest nation on earth. And one report showed that since 1968 our country has lost more men and women to gun violence than we have lost in all of the combined wars that we have experienced, including the great war for our independence that we just celebrated last weekend.    So I want to talk about this, and I am glad you are looking at it, but I think it should be looked at in a broader way. The Department of Homeland Security is the largest law enforcement agency in the country, and of the 21 agents responding to it, the agencies responding to the Department of Homeland Security, they reported the highest number of lost, stolen, or missing weapons was an average of 69 per year. Now, that is important, but there may have been 69 weapons in that van that they stopped going into New York. I mean, it is a huge problem. In contrast, over 230,000 guns are stolen each year during burglaries from private citizens.    So I would like to ask Mr. Horowitz, given these numbers and given your investigative experience searching for solutions to problems, would you agree that non-Federal firearms also affect our communities?</t>
   </si>
   <si>
@@ -808,9 +760,6 @@
     <t>412650</t>
   </si>
   <si>
-    <t>Steve Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman. And, gentlemen, thank you for being here today.    What training do agents receive on properly securing their firearms? Whoever would like to go first. Mr. Kane?</t>
   </si>
   <si>
@@ -856,9 +805,6 @@
     <t>412659</t>
   </si>
   <si>
-    <t>Stacey E. Plaskett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Plaskett. Thank you, Mr. Chairman. And thank you, Mr. Russell. So I guess you are in favor of us having Floor debates on these issues, and that is great hearing that coming from your side. We would like to have those sooner rather than later.</t>
   </si>
   <si>
@@ -961,9 +907,6 @@
     <t>412473</t>
   </si>
   <si>
-    <t>Trey Gowdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Mr. Chairman. I had some questions and observations for the inspector general for the Judicial Department because I am a big fan of his and I always enjoy when he comes before Congress. And then my friend from Oklahoma said something that caused me to kind of divert my thinking a little bit, and I want to, first of all, tell my friend from Oklahoma thank you for your service to our country well before you ever came to Congress.    You mentioned straw purchasers, and of course a straw purchaser is someone who purchases a firearm on behalf of someone who has been prohibited, and that kind of got me thinking, well, I wonder how long the list of prohibited persons is. And I was wondering from my friend from Oklahoma, it is already, I believe, against the law for persons who have been convicted of felonies to purchase firearms and ammunition, is that right?</t>
   </si>
   <si>
@@ -997,9 +940,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman.    Surely my colleague did not mean to suggest that those of us who have a different opinion on guns are communists.</t>
   </si>
   <si>
@@ -1133,9 +1073,6 @@
   </si>
   <si>
     <t>412613</t>
-  </si>
-  <si>
-    <t>Mark DeSaulnier</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSaulnier. Thank you, Mr. Chairman. I want to commend, at the same time find it difficult in giving the benefit of the doubt to reconcile what the majority would like to do here in terms of pursuing best practices on storage and inventory control on Federal public safety agencies and our inability to have an honest non-emotive if possible evidence-based debate about how we can deal with gun safety and violence in this country.    I find it ironic that the history of the NRA started as a gun safety organization where perhaps 50, 60 years ago we could have that kind of discussion where the IG and the National Laboratories could investigate what is the best way to drop gun violence and increase gun safety, whether it is proper funding for prosecutors or laws that are effective or oversight. I for one would enjoy being part of that discussion and just remind and submit for the record if possible a letter that over 100 of us signed to the Republican leadership to continue or re-instigate the funding for Center for Disease Control funding around gun violence. And would ask that that be entered into the record.</t>
@@ -1642,11 +1579,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1668,11 +1603,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1692,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1720,11 +1651,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1746,11 +1675,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1770,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1798,11 +1723,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1822,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1850,11 +1771,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1874,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1902,11 +1819,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1926,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1954,11 +1867,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1978,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2006,11 +1915,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2030,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2058,11 +1963,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2082,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2110,11 +2011,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2134,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2162,11 +2059,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2186,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2214,11 +2107,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2238,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2266,11 +2155,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2290,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2318,11 +2203,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2342,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2370,11 +2251,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2394,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2422,11 +2299,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2446,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2474,11 +2347,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2498,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2526,11 +2395,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2550,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2578,11 +2443,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2602,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2630,11 +2491,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2654,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2682,11 +2539,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2706,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2734,11 +2587,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2758,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2786,11 +2635,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2810,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2836,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2862,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2888,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2914,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
-      </c>
-      <c r="G51" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2940,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2966,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
         <v>66</v>
-      </c>
-      <c r="H53" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2992,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3018,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3044,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3070,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
-      </c>
-      <c r="G57" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3096,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3122,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
-      </c>
-      <c r="G59" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3148,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
-      </c>
-      <c r="G60" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3174,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3200,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
-      </c>
-      <c r="G62" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3226,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3252,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
-      </c>
-      <c r="G64" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3278,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
-      </c>
-      <c r="G65" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3304,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3330,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3356,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3382,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3408,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
-      </c>
-      <c r="G70" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3434,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3460,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
-      </c>
-      <c r="G72" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3486,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3512,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
         <v>89</v>
-      </c>
-      <c r="H74" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3538,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3564,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3590,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3616,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3642,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3668,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3694,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3720,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G82" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3746,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3772,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>88</v>
-      </c>
-      <c r="G84" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3798,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3824,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>88</v>
-      </c>
-      <c r="G86" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3850,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>85</v>
-      </c>
-      <c r="G87" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3876,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3902,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3928,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3954,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3980,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4006,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4032,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4058,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4084,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4110,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4136,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4162,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4188,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4214,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4240,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4266,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4292,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4318,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4344,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>15</v>
-      </c>
-      <c r="G106" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4370,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4396,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>15</v>
-      </c>
-      <c r="G108" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4422,13 +4145,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4448,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>15</v>
-      </c>
-      <c r="G110" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4474,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4500,13 +4217,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>15</v>
-      </c>
-      <c r="G112" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4526,13 +4241,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4552,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4578,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4604,13 +4313,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4630,13 +4337,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4656,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
-      </c>
-      <c r="G118" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4682,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4708,13 +4409,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4734,13 +4433,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>85</v>
-      </c>
-      <c r="G121" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4760,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4786,13 +4481,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4812,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4838,13 +4529,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4864,13 +4553,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>85</v>
-      </c>
-      <c r="G126" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4890,13 +4577,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>149</v>
-      </c>
-      <c r="G127" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4916,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4942,13 +4625,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>149</v>
-      </c>
-      <c r="G129" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4968,13 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4994,13 +4673,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>149</v>
-      </c>
-      <c r="G131" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5020,13 +4697,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5046,13 +4721,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>149</v>
-      </c>
-      <c r="G133" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5072,13 +4745,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5098,13 +4769,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
+        <v>140</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
         <v>149</v>
-      </c>
-      <c r="G135" t="s">
-        <v>150</v>
-      </c>
-      <c r="H135" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5124,13 +4793,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5150,13 +4817,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>149</v>
-      </c>
-      <c r="G137" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5176,13 +4841,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5202,13 +4865,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>149</v>
-      </c>
-      <c r="G139" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5228,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
-      </c>
-      <c r="G140" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5254,13 +4913,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>149</v>
-      </c>
-      <c r="G141" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5280,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5306,13 +4961,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>149</v>
-      </c>
-      <c r="G143" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5332,13 +4985,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5358,13 +5009,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>149</v>
-      </c>
-      <c r="G145" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5384,13 +5033,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5410,13 +5057,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>149</v>
-      </c>
-      <c r="G147" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5436,13 +5081,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5462,13 +5105,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>149</v>
-      </c>
-      <c r="G149" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5488,13 +5129,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5514,13 +5153,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>149</v>
-      </c>
-      <c r="G151" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5540,13 +5177,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>85</v>
-      </c>
-      <c r="G152" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5566,13 +5201,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>177</v>
-      </c>
-      <c r="G153" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5592,13 +5225,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>85</v>
-      </c>
-      <c r="G154" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5618,13 +5249,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>177</v>
-      </c>
-      <c r="G155" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5644,13 +5273,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>182</v>
-      </c>
-      <c r="G156" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5670,13 +5297,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>185</v>
-      </c>
-      <c r="G157" t="s">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5696,13 +5321,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>177</v>
-      </c>
-      <c r="G158" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5722,13 +5345,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>185</v>
-      </c>
-      <c r="G159" t="s">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5748,13 +5369,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
+        <v>167</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
         <v>177</v>
-      </c>
-      <c r="G160" t="s">
-        <v>178</v>
-      </c>
-      <c r="H160" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5774,13 +5393,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>185</v>
-      </c>
-      <c r="G161" t="s">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5800,13 +5417,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>177</v>
-      </c>
-      <c r="G162" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5826,13 +5441,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>185</v>
-      </c>
-      <c r="G163" t="s">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5852,13 +5465,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5878,13 +5489,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>185</v>
-      </c>
-      <c r="G165" t="s">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5904,13 +5513,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5930,13 +5537,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>185</v>
-      </c>
-      <c r="G167" t="s">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5956,13 +5561,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
+        <v>173</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
         <v>185</v>
-      </c>
-      <c r="G168" t="s">
-        <v>186</v>
-      </c>
-      <c r="H168" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5982,13 +5585,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6008,13 +5609,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>185</v>
-      </c>
-      <c r="G170" t="s">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6034,13 +5633,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>185</v>
-      </c>
-      <c r="G171" t="s">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6060,13 +5657,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6086,13 +5681,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>20</v>
-      </c>
-      <c r="G173" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6112,13 +5705,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>185</v>
-      </c>
-      <c r="G174" t="s">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6138,13 +5729,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>20</v>
-      </c>
-      <c r="G175" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6164,13 +5753,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>185</v>
-      </c>
-      <c r="G176" t="s">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6190,13 +5777,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>20</v>
-      </c>
-      <c r="G177" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6216,13 +5801,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>185</v>
-      </c>
-      <c r="G178" t="s">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6242,13 +5825,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>20</v>
-      </c>
-      <c r="G179" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6268,13 +5849,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>185</v>
-      </c>
-      <c r="G180" t="s">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6294,13 +5873,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>20</v>
-      </c>
-      <c r="G181" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6320,13 +5897,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>185</v>
-      </c>
-      <c r="G182" t="s">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6346,13 +5921,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>20</v>
-      </c>
-      <c r="G183" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6372,13 +5945,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>185</v>
-      </c>
-      <c r="G184" t="s">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6398,13 +5969,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>20</v>
-      </c>
-      <c r="G185" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6424,13 +5993,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>185</v>
-      </c>
-      <c r="G186" t="s">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6450,13 +6017,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>85</v>
-      </c>
-      <c r="G187" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6476,13 +6041,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>20</v>
-      </c>
-      <c r="G188" t="s">
-        <v>218</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6502,13 +6065,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>20</v>
-      </c>
-      <c r="G189" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6528,13 +6089,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>20</v>
-      </c>
-      <c r="G190" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6554,13 +6113,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>20</v>
-      </c>
-      <c r="G191" t="s">
-        <v>218</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6580,13 +6137,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>20</v>
-      </c>
-      <c r="G192" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6606,13 +6161,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>20</v>
-      </c>
-      <c r="G193" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6632,13 +6185,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>20</v>
-      </c>
-      <c r="G194" t="s">
-        <v>218</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6658,13 +6209,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>85</v>
-      </c>
-      <c r="G195" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6684,13 +6233,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>227</v>
-      </c>
-      <c r="G196" t="s">
-        <v>228</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6710,13 +6257,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>20</v>
-      </c>
-      <c r="G197" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6736,13 +6281,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>227</v>
-      </c>
-      <c r="G198" t="s">
-        <v>228</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6762,13 +6305,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>20</v>
-      </c>
-      <c r="G199" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6788,13 +6329,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>227</v>
-      </c>
-      <c r="G200" t="s">
-        <v>228</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6814,13 +6353,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>20</v>
-      </c>
-      <c r="G201" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6840,13 +6377,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>227</v>
-      </c>
-      <c r="G202" t="s">
-        <v>228</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6866,13 +6401,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>20</v>
-      </c>
-      <c r="G203" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6892,13 +6425,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>227</v>
-      </c>
-      <c r="G204" t="s">
-        <v>228</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6918,13 +6449,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>20</v>
-      </c>
-      <c r="G205" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6944,13 +6473,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>227</v>
-      </c>
-      <c r="G206" t="s">
-        <v>228</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6970,13 +6497,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>20</v>
-      </c>
-      <c r="G207" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6996,13 +6521,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>227</v>
-      </c>
-      <c r="G208" t="s">
-        <v>228</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7022,13 +6545,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>20</v>
-      </c>
-      <c r="G209" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7048,13 +6569,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
+        <v>213</v>
+      </c>
+      <c r="G210" t="s"/>
+      <c r="H210" t="s">
         <v>227</v>
-      </c>
-      <c r="G210" t="s">
-        <v>228</v>
-      </c>
-      <c r="H210" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7074,13 +6593,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>20</v>
-      </c>
-      <c r="G211" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7100,13 +6617,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>227</v>
-      </c>
-      <c r="G212" t="s">
-        <v>228</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7126,13 +6641,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>20</v>
-      </c>
-      <c r="G213" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7152,13 +6665,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>227</v>
-      </c>
-      <c r="G214" t="s">
-        <v>228</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7178,13 +6689,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>20</v>
-      </c>
-      <c r="G215" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7204,13 +6713,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>227</v>
-      </c>
-      <c r="G216" t="s">
-        <v>228</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7230,13 +6737,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>20</v>
-      </c>
-      <c r="G217" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7256,13 +6761,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>227</v>
-      </c>
-      <c r="G218" t="s">
-        <v>228</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7282,13 +6785,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>20</v>
-      </c>
-      <c r="G219" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7308,13 +6809,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>227</v>
-      </c>
-      <c r="G220" t="s">
-        <v>228</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7334,13 +6833,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>85</v>
-      </c>
-      <c r="G221" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7360,13 +6857,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>254</v>
-      </c>
-      <c r="G222" t="s">
-        <v>255</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7386,13 +6881,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>20</v>
-      </c>
-      <c r="G223" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7412,13 +6905,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>254</v>
-      </c>
-      <c r="G224" t="s">
-        <v>255</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7438,13 +6929,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>85</v>
-      </c>
-      <c r="G225" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7464,13 +6953,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>254</v>
-      </c>
-      <c r="G226" t="s">
-        <v>255</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7490,13 +6977,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>85</v>
-      </c>
-      <c r="G227" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7516,13 +7001,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>85</v>
-      </c>
-      <c r="G228" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7542,13 +7025,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>263</v>
-      </c>
-      <c r="G229" t="s">
-        <v>264</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7568,13 +7049,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>20</v>
-      </c>
-      <c r="G230" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7594,13 +7073,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>263</v>
-      </c>
-      <c r="G231" t="s">
-        <v>264</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7620,13 +7097,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>20</v>
-      </c>
-      <c r="G232" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7646,13 +7121,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>263</v>
-      </c>
-      <c r="G233" t="s">
-        <v>264</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7672,13 +7145,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>263</v>
-      </c>
-      <c r="G234" t="s">
-        <v>264</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7698,13 +7169,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>20</v>
-      </c>
-      <c r="G235" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7724,13 +7193,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>263</v>
-      </c>
-      <c r="G236" t="s">
-        <v>264</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7750,13 +7217,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>20</v>
-      </c>
-      <c r="G237" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7776,13 +7241,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>263</v>
-      </c>
-      <c r="G238" t="s">
-        <v>264</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7802,13 +7265,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>20</v>
-      </c>
-      <c r="G239" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7828,13 +7289,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>263</v>
-      </c>
-      <c r="G240" t="s">
-        <v>264</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7854,13 +7313,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>85</v>
-      </c>
-      <c r="G241" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7880,13 +7337,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>85</v>
-      </c>
-      <c r="G242" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7906,13 +7361,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>279</v>
-      </c>
-      <c r="G243" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7932,13 +7385,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>263</v>
-      </c>
-      <c r="G244" t="s">
+        <v>247</v>
+      </c>
+      <c r="G244" t="s"/>
+      <c r="H244" t="s">
         <v>264</v>
-      </c>
-      <c r="H244" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7958,13 +7409,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>279</v>
-      </c>
-      <c r="G245" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7984,13 +7433,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>263</v>
-      </c>
-      <c r="G246" t="s">
-        <v>264</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8010,13 +7457,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>279</v>
-      </c>
-      <c r="G247" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8036,13 +7481,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>263</v>
-      </c>
-      <c r="G248" t="s">
-        <v>264</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8062,13 +7505,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>279</v>
-      </c>
-      <c r="G249" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8088,13 +7529,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>20</v>
-      </c>
-      <c r="G250" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8114,13 +7553,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>279</v>
-      </c>
-      <c r="G251" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8140,13 +7577,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>20</v>
-      </c>
-      <c r="G252" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8166,13 +7601,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>279</v>
-      </c>
-      <c r="G253" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8192,13 +7625,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>20</v>
-      </c>
-      <c r="G254" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8218,13 +7649,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>279</v>
-      </c>
-      <c r="G255" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8244,13 +7673,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>20</v>
-      </c>
-      <c r="G256" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8270,13 +7697,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>279</v>
-      </c>
-      <c r="G257" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8296,13 +7721,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>20</v>
-      </c>
-      <c r="G258" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8322,13 +7745,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
+        <v>262</v>
+      </c>
+      <c r="G259" t="s"/>
+      <c r="H259" t="s">
         <v>279</v>
-      </c>
-      <c r="G259" t="s">
-        <v>280</v>
-      </c>
-      <c r="H259" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8348,13 +7769,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>20</v>
-      </c>
-      <c r="G260" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8374,13 +7793,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>279</v>
-      </c>
-      <c r="G261" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8400,13 +7817,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>20</v>
-      </c>
-      <c r="G262" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8426,13 +7841,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>279</v>
-      </c>
-      <c r="G263" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8452,13 +7865,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>20</v>
-      </c>
-      <c r="G264" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8478,13 +7889,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>279</v>
-      </c>
-      <c r="G265" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8504,13 +7913,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>279</v>
-      </c>
-      <c r="G266" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8530,13 +7937,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>20</v>
-      </c>
-      <c r="G267" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8556,13 +7961,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>279</v>
-      </c>
-      <c r="G268" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8582,13 +7985,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>20</v>
-      </c>
-      <c r="G269" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8608,13 +8009,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>279</v>
-      </c>
-      <c r="G270" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8634,13 +8033,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>20</v>
-      </c>
-      <c r="G271" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8660,13 +8057,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>279</v>
-      </c>
-      <c r="G272" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8686,13 +8081,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>20</v>
-      </c>
-      <c r="G273" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8712,13 +8105,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>279</v>
-      </c>
-      <c r="G274" t="s">
-        <v>280</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8738,13 +8129,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>85</v>
-      </c>
-      <c r="G275" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8764,13 +8153,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>314</v>
-      </c>
-      <c r="G276" t="s">
-        <v>315</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8790,13 +8177,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>263</v>
-      </c>
-      <c r="G277" t="s">
-        <v>264</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8816,13 +8201,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>314</v>
-      </c>
-      <c r="G278" t="s">
-        <v>315</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8842,13 +8225,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>263</v>
-      </c>
-      <c r="G279" t="s">
-        <v>264</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8868,13 +8249,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>314</v>
-      </c>
-      <c r="G280" t="s">
-        <v>315</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8894,13 +8273,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>263</v>
-      </c>
-      <c r="G281" t="s">
-        <v>264</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8920,13 +8297,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>314</v>
-      </c>
-      <c r="G282" t="s">
-        <v>315</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8946,13 +8321,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>263</v>
-      </c>
-      <c r="G283" t="s">
-        <v>264</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8972,13 +8345,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>314</v>
-      </c>
-      <c r="G284" t="s">
-        <v>315</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8998,13 +8369,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>85</v>
-      </c>
-      <c r="G285" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9024,13 +8393,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>326</v>
-      </c>
-      <c r="G286" t="s">
-        <v>327</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9050,13 +8417,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>263</v>
-      </c>
-      <c r="G287" t="s">
-        <v>264</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9076,13 +8441,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>326</v>
-      </c>
-      <c r="G288" t="s">
-        <v>327</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9102,13 +8465,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>20</v>
-      </c>
-      <c r="G289" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9128,13 +8489,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>326</v>
-      </c>
-      <c r="G290" t="s">
-        <v>327</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9154,13 +8513,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>20</v>
-      </c>
-      <c r="G291" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9180,13 +8537,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>326</v>
-      </c>
-      <c r="G292" t="s">
-        <v>327</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9206,13 +8561,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>20</v>
-      </c>
-      <c r="G293" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9232,13 +8585,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>326</v>
-      </c>
-      <c r="G294" t="s">
-        <v>327</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9258,13 +8609,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>85</v>
-      </c>
-      <c r="G295" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9284,13 +8633,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>20</v>
-      </c>
-      <c r="G296" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9310,13 +8657,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>85</v>
-      </c>
-      <c r="G297" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9336,13 +8681,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>20</v>
-      </c>
-      <c r="G298" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9362,13 +8705,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>85</v>
-      </c>
-      <c r="G299" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9388,13 +8729,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>20</v>
-      </c>
-      <c r="G300" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9414,13 +8753,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>85</v>
-      </c>
-      <c r="G301" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9440,13 +8777,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>20</v>
-      </c>
-      <c r="G302" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9466,13 +8801,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>85</v>
-      </c>
-      <c r="G303" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9492,13 +8825,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>20</v>
-      </c>
-      <c r="G304" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9518,13 +8849,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>85</v>
-      </c>
-      <c r="G305" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9544,13 +8873,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>20</v>
-      </c>
-      <c r="G306" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9570,13 +8897,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>85</v>
-      </c>
-      <c r="G307" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9596,13 +8921,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>20</v>
-      </c>
-      <c r="G308" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9622,13 +8945,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>85</v>
-      </c>
-      <c r="G309" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9648,13 +8969,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>20</v>
-      </c>
-      <c r="G310" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9674,13 +8993,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>85</v>
-      </c>
-      <c r="G311" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9700,13 +9017,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>85</v>
-      </c>
-      <c r="G312" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9726,13 +9041,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>20</v>
-      </c>
-      <c r="G313" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9752,13 +9065,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>85</v>
-      </c>
-      <c r="G314" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9778,13 +9089,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>20</v>
-      </c>
-      <c r="G315" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9804,13 +9113,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>85</v>
-      </c>
-      <c r="G316" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9830,13 +9137,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>20</v>
-      </c>
-      <c r="G317" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9856,13 +9161,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>85</v>
-      </c>
-      <c r="G318" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9882,13 +9185,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>20</v>
-      </c>
-      <c r="G319" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9908,13 +9209,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>85</v>
-      </c>
-      <c r="G320" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9934,13 +9233,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>20</v>
-      </c>
-      <c r="G321" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9960,13 +9257,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>85</v>
-      </c>
-      <c r="G322" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9986,13 +9281,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>20</v>
-      </c>
-      <c r="G323" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10012,13 +9305,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>85</v>
-      </c>
-      <c r="G324" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10038,13 +9329,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>20</v>
-      </c>
-      <c r="G325" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10064,13 +9353,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>85</v>
-      </c>
-      <c r="G326" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10090,13 +9377,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>20</v>
-      </c>
-      <c r="G327" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10116,13 +9401,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>85</v>
-      </c>
-      <c r="G328" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10142,13 +9425,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>85</v>
-      </c>
-      <c r="G329" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10168,13 +9449,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>372</v>
-      </c>
-      <c r="G330" t="s">
-        <v>373</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10194,13 +9473,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>372</v>
-      </c>
-      <c r="G331" t="s">
-        <v>373</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10220,13 +9497,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>20</v>
-      </c>
-      <c r="G332" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10246,13 +9521,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>372</v>
-      </c>
-      <c r="G333" t="s">
-        <v>373</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10272,13 +9545,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>20</v>
-      </c>
-      <c r="G334" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10298,13 +9569,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>372</v>
-      </c>
-      <c r="G335" t="s">
-        <v>373</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10324,13 +9593,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>20</v>
-      </c>
-      <c r="G336" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10350,13 +9617,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>372</v>
-      </c>
-      <c r="G337" t="s">
-        <v>373</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10376,13 +9641,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>20</v>
-      </c>
-      <c r="G338" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10402,13 +9665,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>372</v>
-      </c>
-      <c r="G339" t="s">
-        <v>373</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10428,13 +9689,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>20</v>
-      </c>
-      <c r="G340" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10454,13 +9713,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>372</v>
-      </c>
-      <c r="G341" t="s">
-        <v>373</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10480,13 +9737,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>85</v>
-      </c>
-      <c r="G342" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10506,13 +9761,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>20</v>
-      </c>
-      <c r="G343" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10532,13 +9785,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>85</v>
-      </c>
-      <c r="G344" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10558,13 +9809,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>20</v>
-      </c>
-      <c r="G345" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10584,13 +9833,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>85</v>
-      </c>
-      <c r="G346" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10610,13 +9857,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>20</v>
-      </c>
-      <c r="G347" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10636,13 +9881,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>85</v>
-      </c>
-      <c r="G348" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10662,13 +9905,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>85</v>
-      </c>
-      <c r="G349" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10688,13 +9929,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>20</v>
-      </c>
-      <c r="G350" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10714,13 +9953,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>85</v>
-      </c>
-      <c r="G351" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10740,13 +9977,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>20</v>
-      </c>
-      <c r="G352" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10766,13 +10001,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>85</v>
-      </c>
-      <c r="G353" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10792,13 +10025,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>20</v>
-      </c>
-      <c r="G354" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10818,13 +10049,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>85</v>
-      </c>
-      <c r="G355" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10844,13 +10073,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>20</v>
-      </c>
-      <c r="G356" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10870,13 +10097,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>85</v>
-      </c>
-      <c r="G357" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10896,13 +10121,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>20</v>
-      </c>
-      <c r="G358" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10922,13 +10145,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>85</v>
-      </c>
-      <c r="G359" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10948,13 +10169,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>20</v>
-      </c>
-      <c r="G360" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10974,13 +10193,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>85</v>
-      </c>
-      <c r="G361" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11000,13 +10217,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>15</v>
-      </c>
-      <c r="G362" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11026,13 +10241,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>20</v>
-      </c>
-      <c r="G363" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11052,13 +10265,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>15</v>
-      </c>
-      <c r="G364" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11078,13 +10289,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>20</v>
-      </c>
-      <c r="G365" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11104,13 +10313,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>85</v>
-      </c>
-      <c r="G366" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
